--- a/Clor_redact.xlsx
+++ b/Clor_redact.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="1882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="1889">
   <si>
     <t>date</t>
   </si>
@@ -5670,6 +5670,27 @@
   </si>
   <si>
     <t>287.39938916915503</t>
+  </si>
+  <si>
+    <t>pred_mask_clor_poly_center_zone</t>
+  </si>
+  <si>
+    <t>pred_mask_clor_poly_not_center_zone_BT</t>
+  </si>
+  <si>
+    <t>pred_mask_clor_poly_not_center_zone_G</t>
+  </si>
+  <si>
+    <t>pred_mask_clor_poly_not_center_zone_S_r</t>
+  </si>
+  <si>
+    <t>pred_mask_clor_poly_not_center_zone_S_l</t>
+  </si>
+  <si>
+    <t>pred_mask_clor_poly_not_center_zone__l</t>
+  </si>
+  <si>
+    <t>pred_mask_clor_poly_not_center_zone_TV</t>
   </si>
 </sst>
 </file>
@@ -6020,10 +6041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:AC94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6031,7 +6052,7 @@
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6098,8 +6119,29 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1888</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>41426</v>
       </c>
@@ -6167,7 +6209,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>41427</v>
       </c>
@@ -6234,8 +6276,29 @@
       <c r="V3" t="s">
         <v>698</v>
       </c>
+      <c r="W3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>41428</v>
       </c>
@@ -6302,8 +6365,29 @@
       <c r="V4" t="s">
         <v>711</v>
       </c>
+      <c r="W4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>41429</v>
       </c>
@@ -6370,8 +6454,29 @@
       <c r="V5" t="s">
         <v>724</v>
       </c>
+      <c r="W5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>41430</v>
       </c>
@@ -6438,8 +6543,29 @@
       <c r="V6" t="s">
         <v>737</v>
       </c>
+      <c r="W6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>41431</v>
       </c>
@@ -6506,8 +6632,29 @@
       <c r="V7" t="s">
         <v>750</v>
       </c>
+      <c r="W7" t="s">
+        <v>57</v>
+      </c>
+      <c r="X7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>41432</v>
       </c>
@@ -6574,8 +6721,29 @@
       <c r="V8" t="s">
         <v>763</v>
       </c>
+      <c r="W8" t="s">
+        <v>64</v>
+      </c>
+      <c r="X8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>41433</v>
       </c>
@@ -6642,8 +6810,29 @@
       <c r="V9" t="s">
         <v>776</v>
       </c>
+      <c r="W9" t="s">
+        <v>71</v>
+      </c>
+      <c r="X9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>41434</v>
       </c>
@@ -6710,8 +6899,29 @@
       <c r="V10" t="s">
         <v>789</v>
       </c>
+      <c r="W10" t="s">
+        <v>78</v>
+      </c>
+      <c r="X10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>41435</v>
       </c>
@@ -6778,8 +6988,29 @@
       <c r="V11" t="s">
         <v>802</v>
       </c>
+      <c r="W11" t="s">
+        <v>85</v>
+      </c>
+      <c r="X11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>41436</v>
       </c>
@@ -6846,8 +7077,29 @@
       <c r="V12" t="s">
         <v>815</v>
       </c>
+      <c r="W12" t="s">
+        <v>92</v>
+      </c>
+      <c r="X12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>41437</v>
       </c>
@@ -6914,8 +7166,29 @@
       <c r="V13" t="s">
         <v>828</v>
       </c>
+      <c r="W13" t="s">
+        <v>99</v>
+      </c>
+      <c r="X13" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>41438</v>
       </c>
@@ -6982,8 +7255,29 @@
       <c r="V14" t="s">
         <v>841</v>
       </c>
+      <c r="W14" t="s">
+        <v>106</v>
+      </c>
+      <c r="X14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>41439</v>
       </c>
@@ -7050,8 +7344,29 @@
       <c r="V15" t="s">
         <v>854</v>
       </c>
+      <c r="W15" t="s">
+        <v>113</v>
+      </c>
+      <c r="X15" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>41440</v>
       </c>
@@ -7118,8 +7433,29 @@
       <c r="V16" t="s">
         <v>867</v>
       </c>
+      <c r="W16" t="s">
+        <v>120</v>
+      </c>
+      <c r="X16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>41441</v>
       </c>
@@ -7186,8 +7522,29 @@
       <c r="V17" t="s">
         <v>880</v>
       </c>
+      <c r="W17" t="s">
+        <v>127</v>
+      </c>
+      <c r="X17" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>41442</v>
       </c>
@@ -7254,8 +7611,29 @@
       <c r="V18" t="s">
         <v>893</v>
       </c>
+      <c r="W18" t="s">
+        <v>134</v>
+      </c>
+      <c r="X18" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>41443</v>
       </c>
@@ -7322,8 +7700,29 @@
       <c r="V19" t="s">
         <v>906</v>
       </c>
+      <c r="W19" t="s">
+        <v>141</v>
+      </c>
+      <c r="X19" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>41444</v>
       </c>
@@ -7390,8 +7789,29 @@
       <c r="V20" t="s">
         <v>919</v>
       </c>
+      <c r="W20" t="s">
+        <v>148</v>
+      </c>
+      <c r="X20" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>41445</v>
       </c>
@@ -7458,8 +7878,29 @@
       <c r="V21" t="s">
         <v>932</v>
       </c>
+      <c r="W21" t="s">
+        <v>155</v>
+      </c>
+      <c r="X21" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>41446</v>
       </c>
@@ -7526,8 +7967,29 @@
       <c r="V22" t="s">
         <v>945</v>
       </c>
+      <c r="W22" t="s">
+        <v>162</v>
+      </c>
+      <c r="X22" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>41447</v>
       </c>
@@ -7594,8 +8056,29 @@
       <c r="V23" t="s">
         <v>958</v>
       </c>
+      <c r="W23" t="s">
+        <v>169</v>
+      </c>
+      <c r="X23" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>41448</v>
       </c>
@@ -7662,8 +8145,29 @@
       <c r="V24" t="s">
         <v>971</v>
       </c>
+      <c r="W24" t="s">
+        <v>176</v>
+      </c>
+      <c r="X24" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>41449</v>
       </c>
@@ -7730,8 +8234,29 @@
       <c r="V25" t="s">
         <v>984</v>
       </c>
+      <c r="W25" t="s">
+        <v>183</v>
+      </c>
+      <c r="X25" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>41450</v>
       </c>
@@ -7798,8 +8323,29 @@
       <c r="V26" t="s">
         <v>997</v>
       </c>
+      <c r="W26" t="s">
+        <v>190</v>
+      </c>
+      <c r="X26" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>41451</v>
       </c>
@@ -7866,8 +8412,29 @@
       <c r="V27" t="s">
         <v>1010</v>
       </c>
+      <c r="W27" t="s">
+        <v>197</v>
+      </c>
+      <c r="X27" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>41452</v>
       </c>
@@ -7934,8 +8501,29 @@
       <c r="V28" t="s">
         <v>1023</v>
       </c>
+      <c r="W28" t="s">
+        <v>204</v>
+      </c>
+      <c r="X28" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>41453</v>
       </c>
@@ -8002,8 +8590,29 @@
       <c r="V29" t="s">
         <v>1036</v>
       </c>
+      <c r="W29" t="s">
+        <v>211</v>
+      </c>
+      <c r="X29" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>217</v>
+      </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>41454</v>
       </c>
@@ -8070,8 +8679,29 @@
       <c r="V30" t="s">
         <v>1049</v>
       </c>
+      <c r="W30" t="s">
+        <v>218</v>
+      </c>
+      <c r="X30" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>224</v>
+      </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>41455</v>
       </c>
@@ -8138,8 +8768,29 @@
       <c r="V31" t="s">
         <v>1062</v>
       </c>
+      <c r="W31" t="s">
+        <v>225</v>
+      </c>
+      <c r="X31" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>231</v>
+      </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>41456</v>
       </c>
@@ -8206,8 +8857,29 @@
       <c r="V32" t="s">
         <v>1075</v>
       </c>
+      <c r="W32" t="s">
+        <v>232</v>
+      </c>
+      <c r="X32" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>238</v>
+      </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>41457</v>
       </c>
@@ -8274,8 +8946,29 @@
       <c r="V33" t="s">
         <v>1088</v>
       </c>
+      <c r="W33" t="s">
+        <v>239</v>
+      </c>
+      <c r="X33" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>245</v>
+      </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>41458</v>
       </c>
@@ -8342,8 +9035,29 @@
       <c r="V34" t="s">
         <v>1101</v>
       </c>
+      <c r="W34" t="s">
+        <v>246</v>
+      </c>
+      <c r="X34" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>252</v>
+      </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>41459</v>
       </c>
@@ -8410,8 +9124,29 @@
       <c r="V35" t="s">
         <v>1114</v>
       </c>
+      <c r="W35" t="s">
+        <v>253</v>
+      </c>
+      <c r="X35" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>259</v>
+      </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>41460</v>
       </c>
@@ -8478,8 +9213,29 @@
       <c r="V36" t="s">
         <v>1127</v>
       </c>
+      <c r="W36" t="s">
+        <v>260</v>
+      </c>
+      <c r="X36" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>41461</v>
       </c>
@@ -8546,8 +9302,29 @@
       <c r="V37" t="s">
         <v>1140</v>
       </c>
+      <c r="W37" t="s">
+        <v>267</v>
+      </c>
+      <c r="X37" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>41462</v>
       </c>
@@ -8614,8 +9391,29 @@
       <c r="V38" t="s">
         <v>1153</v>
       </c>
+      <c r="W38" t="s">
+        <v>274</v>
+      </c>
+      <c r="X38" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>280</v>
+      </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>41463</v>
       </c>
@@ -8682,8 +9480,29 @@
       <c r="V39" t="s">
         <v>1166</v>
       </c>
+      <c r="W39" t="s">
+        <v>281</v>
+      </c>
+      <c r="X39" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>287</v>
+      </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>41464</v>
       </c>
@@ -8750,8 +9569,29 @@
       <c r="V40" t="s">
         <v>1179</v>
       </c>
+      <c r="W40" t="s">
+        <v>288</v>
+      </c>
+      <c r="X40" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>294</v>
+      </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>41465</v>
       </c>
@@ -8818,8 +9658,29 @@
       <c r="V41" t="s">
         <v>1192</v>
       </c>
+      <c r="W41" t="s">
+        <v>295</v>
+      </c>
+      <c r="X41" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>301</v>
+      </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41466</v>
       </c>
@@ -8886,8 +9747,29 @@
       <c r="V42" t="s">
         <v>1205</v>
       </c>
+      <c r="W42" t="s">
+        <v>302</v>
+      </c>
+      <c r="X42" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41467</v>
       </c>
@@ -8954,8 +9836,29 @@
       <c r="V43" t="s">
         <v>1218</v>
       </c>
+      <c r="W43" t="s">
+        <v>309</v>
+      </c>
+      <c r="X43" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41468</v>
       </c>
@@ -9022,8 +9925,29 @@
       <c r="V44" t="s">
         <v>1231</v>
       </c>
+      <c r="W44" t="s">
+        <v>316</v>
+      </c>
+      <c r="X44" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>322</v>
+      </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>41469</v>
       </c>
@@ -9090,8 +10014,29 @@
       <c r="V45" t="s">
         <v>1244</v>
       </c>
+      <c r="W45" t="s">
+        <v>323</v>
+      </c>
+      <c r="X45" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>329</v>
+      </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41470</v>
       </c>
@@ -9158,8 +10103,29 @@
       <c r="V46" t="s">
         <v>1257</v>
       </c>
+      <c r="W46" t="s">
+        <v>330</v>
+      </c>
+      <c r="X46" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>336</v>
+      </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>41471</v>
       </c>
@@ -9226,8 +10192,29 @@
       <c r="V47" t="s">
         <v>1270</v>
       </c>
+      <c r="W47" t="s">
+        <v>337</v>
+      </c>
+      <c r="X47" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>343</v>
+      </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>41472</v>
       </c>
@@ -9294,8 +10281,29 @@
       <c r="V48" t="s">
         <v>1283</v>
       </c>
+      <c r="W48" t="s">
+        <v>344</v>
+      </c>
+      <c r="X48" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>350</v>
+      </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>41473</v>
       </c>
@@ -9362,8 +10370,29 @@
       <c r="V49" t="s">
         <v>1296</v>
       </c>
+      <c r="W49" t="s">
+        <v>351</v>
+      </c>
+      <c r="X49" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>357</v>
+      </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>41474</v>
       </c>
@@ -9430,8 +10459,29 @@
       <c r="V50" t="s">
         <v>1309</v>
       </c>
+      <c r="W50" t="s">
+        <v>358</v>
+      </c>
+      <c r="X50" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>364</v>
+      </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>41475</v>
       </c>
@@ -9498,8 +10548,29 @@
       <c r="V51" t="s">
         <v>1322</v>
       </c>
+      <c r="W51" t="s">
+        <v>365</v>
+      </c>
+      <c r="X51" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>371</v>
+      </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>41476</v>
       </c>
@@ -9566,8 +10637,29 @@
       <c r="V52" t="s">
         <v>1335</v>
       </c>
+      <c r="W52" t="s">
+        <v>372</v>
+      </c>
+      <c r="X52" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>41477</v>
       </c>
@@ -9634,8 +10726,29 @@
       <c r="V53" t="s">
         <v>1348</v>
       </c>
+      <c r="W53" t="s">
+        <v>379</v>
+      </c>
+      <c r="X53" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>384</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>385</v>
+      </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>41478</v>
       </c>
@@ -9702,8 +10815,29 @@
       <c r="V54" t="s">
         <v>1361</v>
       </c>
+      <c r="W54" t="s">
+        <v>386</v>
+      </c>
+      <c r="X54" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>392</v>
+      </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>41479</v>
       </c>
@@ -9770,8 +10904,29 @@
       <c r="V55" t="s">
         <v>1374</v>
       </c>
+      <c r="W55" t="s">
+        <v>393</v>
+      </c>
+      <c r="X55" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>41480</v>
       </c>
@@ -9838,8 +10993,29 @@
       <c r="V56" t="s">
         <v>1387</v>
       </c>
+      <c r="W56" t="s">
+        <v>400</v>
+      </c>
+      <c r="X56" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>405</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>406</v>
+      </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>41481</v>
       </c>
@@ -9906,8 +11082,29 @@
       <c r="V57" t="s">
         <v>1400</v>
       </c>
+      <c r="W57" t="s">
+        <v>407</v>
+      </c>
+      <c r="X57" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>413</v>
+      </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>41482</v>
       </c>
@@ -9974,8 +11171,29 @@
       <c r="V58" t="s">
         <v>1413</v>
       </c>
+      <c r="W58" t="s">
+        <v>414</v>
+      </c>
+      <c r="X58" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>420</v>
+      </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>41483</v>
       </c>
@@ -10042,8 +11260,29 @@
       <c r="V59" t="s">
         <v>1426</v>
       </c>
+      <c r="W59" t="s">
+        <v>421</v>
+      </c>
+      <c r="X59" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>41484</v>
       </c>
@@ -10110,8 +11349,29 @@
       <c r="V60" t="s">
         <v>1439</v>
       </c>
+      <c r="W60" t="s">
+        <v>428</v>
+      </c>
+      <c r="X60" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>430</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>431</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>434</v>
+      </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>41485</v>
       </c>
@@ -10178,8 +11438,29 @@
       <c r="V61" t="s">
         <v>1452</v>
       </c>
+      <c r="W61" t="s">
+        <v>435</v>
+      </c>
+      <c r="X61" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>437</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>438</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>441</v>
+      </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>41486</v>
       </c>
@@ -10246,8 +11527,29 @@
       <c r="V62" t="s">
         <v>1465</v>
       </c>
+      <c r="W62" t="s">
+        <v>442</v>
+      </c>
+      <c r="X62" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>446</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>448</v>
+      </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>41487</v>
       </c>
@@ -10314,8 +11616,29 @@
       <c r="V63" t="s">
         <v>1478</v>
       </c>
+      <c r="W63" t="s">
+        <v>449</v>
+      </c>
+      <c r="X63" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>454</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>455</v>
+      </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>41488</v>
       </c>
@@ -10382,8 +11705,29 @@
       <c r="V64" t="s">
         <v>1491</v>
       </c>
+      <c r="W64" t="s">
+        <v>456</v>
+      </c>
+      <c r="X64" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>462</v>
+      </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>41489</v>
       </c>
@@ -10450,8 +11794,29 @@
       <c r="V65" t="s">
         <v>1504</v>
       </c>
+      <c r="W65" t="s">
+        <v>463</v>
+      </c>
+      <c r="X65" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>465</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>466</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>467</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>468</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>41490</v>
       </c>
@@ -10518,8 +11883,29 @@
       <c r="V66" t="s">
         <v>1517</v>
       </c>
+      <c r="W66" t="s">
+        <v>470</v>
+      </c>
+      <c r="X66" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>472</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>476</v>
+      </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>41491</v>
       </c>
@@ -10586,8 +11972,29 @@
       <c r="V67" t="s">
         <v>1530</v>
       </c>
+      <c r="W67" t="s">
+        <v>477</v>
+      </c>
+      <c r="X67" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>481</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>482</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>483</v>
+      </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>41492</v>
       </c>
@@ -10654,8 +12061,29 @@
       <c r="V68" t="s">
         <v>1543</v>
       </c>
+      <c r="W68" t="s">
+        <v>484</v>
+      </c>
+      <c r="X68" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>490</v>
+      </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>41493</v>
       </c>
@@ -10722,8 +12150,29 @@
       <c r="V69" t="s">
         <v>1556</v>
       </c>
+      <c r="W69" t="s">
+        <v>491</v>
+      </c>
+      <c r="X69" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>493</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>494</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>496</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>497</v>
+      </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>41494</v>
       </c>
@@ -10790,8 +12239,29 @@
       <c r="V70" t="s">
         <v>1569</v>
       </c>
+      <c r="W70" t="s">
+        <v>498</v>
+      </c>
+      <c r="X70" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>500</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>501</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>502</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>503</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>504</v>
+      </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>41495</v>
       </c>
@@ -10858,8 +12328,29 @@
       <c r="V71" t="s">
         <v>1582</v>
       </c>
+      <c r="W71" t="s">
+        <v>505</v>
+      </c>
+      <c r="X71" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>508</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>510</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>511</v>
+      </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>41496</v>
       </c>
@@ -10926,8 +12417,29 @@
       <c r="V72" t="s">
         <v>1595</v>
       </c>
+      <c r="W72" t="s">
+        <v>512</v>
+      </c>
+      <c r="X72" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>514</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>515</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>516</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>517</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>518</v>
+      </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>41497</v>
       </c>
@@ -10994,8 +12506,29 @@
       <c r="V73" t="s">
         <v>1608</v>
       </c>
+      <c r="W73" t="s">
+        <v>519</v>
+      </c>
+      <c r="X73" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>524</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>525</v>
+      </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>41498</v>
       </c>
@@ -11062,8 +12595,29 @@
       <c r="V74" t="s">
         <v>1621</v>
       </c>
+      <c r="W74" t="s">
+        <v>526</v>
+      </c>
+      <c r="X74" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>528</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>530</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>532</v>
+      </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>41499</v>
       </c>
@@ -11130,8 +12684,29 @@
       <c r="V75" t="s">
         <v>1634</v>
       </c>
+      <c r="W75" t="s">
+        <v>533</v>
+      </c>
+      <c r="X75" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>535</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>536</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>537</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>538</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>539</v>
+      </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>41500</v>
       </c>
@@ -11198,8 +12773,29 @@
       <c r="V76" t="s">
         <v>1647</v>
       </c>
+      <c r="W76" t="s">
+        <v>540</v>
+      </c>
+      <c r="X76" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>544</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>545</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>546</v>
+      </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>41501</v>
       </c>
@@ -11266,8 +12862,29 @@
       <c r="V77" t="s">
         <v>1660</v>
       </c>
+      <c r="W77" t="s">
+        <v>547</v>
+      </c>
+      <c r="X77" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>551</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>552</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>553</v>
+      </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>41502</v>
       </c>
@@ -11334,8 +12951,29 @@
       <c r="V78" t="s">
         <v>1673</v>
       </c>
+      <c r="W78" t="s">
+        <v>554</v>
+      </c>
+      <c r="X78" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>556</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>557</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>558</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>559</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>560</v>
+      </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>41503</v>
       </c>
@@ -11402,8 +13040,29 @@
       <c r="V79" t="s">
         <v>1686</v>
       </c>
+      <c r="W79" t="s">
+        <v>561</v>
+      </c>
+      <c r="X79" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>565</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>566</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>567</v>
+      </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>41504</v>
       </c>
@@ -11470,8 +13129,29 @@
       <c r="V80" t="s">
         <v>1699</v>
       </c>
+      <c r="W80" t="s">
+        <v>568</v>
+      </c>
+      <c r="X80" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>572</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>573</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>574</v>
+      </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>41505</v>
       </c>
@@ -11538,8 +13218,29 @@
       <c r="V81" t="s">
         <v>1712</v>
       </c>
+      <c r="W81" t="s">
+        <v>575</v>
+      </c>
+      <c r="X81" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>577</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>579</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>580</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>581</v>
+      </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>41506</v>
       </c>
@@ -11606,8 +13307,29 @@
       <c r="V82" t="s">
         <v>1725</v>
       </c>
+      <c r="W82" t="s">
+        <v>582</v>
+      </c>
+      <c r="X82" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>584</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>585</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>586</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>587</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>588</v>
+      </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>41507</v>
       </c>
@@ -11674,8 +13396,29 @@
       <c r="V83" t="s">
         <v>1738</v>
       </c>
+      <c r="W83" t="s">
+        <v>589</v>
+      </c>
+      <c r="X83" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>594</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>595</v>
+      </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>41508</v>
       </c>
@@ -11742,8 +13485,29 @@
       <c r="V84" t="s">
         <v>1751</v>
       </c>
+      <c r="W84" t="s">
+        <v>596</v>
+      </c>
+      <c r="X84" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>598</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>601</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>602</v>
+      </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>41509</v>
       </c>
@@ -11810,8 +13574,29 @@
       <c r="V85" t="s">
         <v>1764</v>
       </c>
+      <c r="W85" t="s">
+        <v>603</v>
+      </c>
+      <c r="X85" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>605</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>606</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>608</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>609</v>
+      </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>41510</v>
       </c>
@@ -11878,8 +13663,29 @@
       <c r="V86" t="s">
         <v>1777</v>
       </c>
+      <c r="W86" t="s">
+        <v>610</v>
+      </c>
+      <c r="X86" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>612</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>613</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>615</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>616</v>
+      </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>41511</v>
       </c>
@@ -11946,8 +13752,29 @@
       <c r="V87" t="s">
         <v>1790</v>
       </c>
+      <c r="W87" t="s">
+        <v>617</v>
+      </c>
+      <c r="X87" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>619</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>622</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>623</v>
+      </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>41512</v>
       </c>
@@ -12014,8 +13841,29 @@
       <c r="V88" t="s">
         <v>1803</v>
       </c>
+      <c r="W88" t="s">
+        <v>624</v>
+      </c>
+      <c r="X88" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>626</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>629</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>630</v>
+      </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>41513</v>
       </c>
@@ -12082,8 +13930,29 @@
       <c r="V89" t="s">
         <v>1816</v>
       </c>
+      <c r="W89" t="s">
+        <v>631</v>
+      </c>
+      <c r="X89" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>633</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>634</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>636</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>637</v>
+      </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>41514</v>
       </c>
@@ -12150,8 +14019,29 @@
       <c r="V90" t="s">
         <v>1829</v>
       </c>
+      <c r="W90" t="s">
+        <v>638</v>
+      </c>
+      <c r="X90" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>640</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>643</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>644</v>
+      </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>41515</v>
       </c>
@@ -12218,8 +14108,29 @@
       <c r="V91" t="s">
         <v>1842</v>
       </c>
+      <c r="W91" t="s">
+        <v>645</v>
+      </c>
+      <c r="X91" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>647</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>649</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>650</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>651</v>
+      </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>41516</v>
       </c>
@@ -12286,8 +14197,29 @@
       <c r="V92" t="s">
         <v>1855</v>
       </c>
+      <c r="W92" t="s">
+        <v>652</v>
+      </c>
+      <c r="X92" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>654</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>655</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>656</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>657</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>658</v>
+      </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>41517</v>
       </c>
@@ -12354,8 +14286,29 @@
       <c r="V93" t="s">
         <v>1868</v>
       </c>
+      <c r="W93" t="s">
+        <v>659</v>
+      </c>
+      <c r="X93" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>661</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>662</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>663</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>664</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>665</v>
+      </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>41518</v>
       </c>
@@ -12421,10 +14374,115 @@
       </c>
       <c r="V94" t="s">
         <v>1881</v>
+      </c>
+      <c r="W94" t="s">
+        <v>666</v>
+      </c>
+      <c r="X94" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>668</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>669</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>670</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>671</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>672</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B94">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C94">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D94">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E94">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F94">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G94">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H94">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3:W94">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -12436,7 +14494,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C94">
+  <conditionalFormatting sqref="X3:X94">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -12448,7 +14506,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D94">
+  <conditionalFormatting sqref="Y3:Y94">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -12460,7 +14518,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E94">
+  <conditionalFormatting sqref="Z3:Z94">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -12472,7 +14530,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F94">
+  <conditionalFormatting sqref="AA3:AA94">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -12484,7 +14542,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G94">
+  <conditionalFormatting sqref="AB3:AB94">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -12496,7 +14554,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H94">
+  <conditionalFormatting sqref="AC3:AC94">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Clor_redact.xlsx
+++ b/Clor_redact.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="1889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="1889">
   <si>
     <t>date</t>
   </si>
@@ -6041,10 +6041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC94"/>
+  <dimension ref="A1:AC95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6277,25 +6277,25 @@
         <v>698</v>
       </c>
       <c r="W3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="X3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="Z3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AA3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AC3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -6366,25 +6366,25 @@
         <v>711</v>
       </c>
       <c r="W4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="X4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Z4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AB4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -6455,25 +6455,25 @@
         <v>724</v>
       </c>
       <c r="W5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="X5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Y5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AA5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -6544,25 +6544,25 @@
         <v>737</v>
       </c>
       <c r="W6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="X6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Y6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Z6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AB6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AC6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -6633,25 +6633,25 @@
         <v>750</v>
       </c>
       <c r="W7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="X7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Y7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Z7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AA7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AC7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -6722,25 +6722,25 @@
         <v>763</v>
       </c>
       <c r="W8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="X8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="Y8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Z8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AA8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AB8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AC8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -6811,25 +6811,25 @@
         <v>776</v>
       </c>
       <c r="W9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="X9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="Y9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Z9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AA9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AB9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AC9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -6900,25 +6900,25 @@
         <v>789</v>
       </c>
       <c r="W10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="X10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Y10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -6989,25 +6989,25 @@
         <v>802</v>
       </c>
       <c r="W11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Y11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AC11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -7078,25 +7078,25 @@
         <v>815</v>
       </c>
       <c r="W12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="X12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Y12" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="Z12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AA12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="AB12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AC12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -7167,25 +7167,25 @@
         <v>828</v>
       </c>
       <c r="W13" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="X13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="Y13" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Z13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="AA13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AB13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AC13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -7256,25 +7256,25 @@
         <v>841</v>
       </c>
       <c r="W14" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="X14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="Y14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="Z14" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AA14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AB14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AC14" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -7345,25 +7345,25 @@
         <v>854</v>
       </c>
       <c r="W15" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="X15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="Y15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Z15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AA15" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="AB15" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="AC15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -7434,25 +7434,25 @@
         <v>867</v>
       </c>
       <c r="W16" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="X16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Y16" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="Z16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="AA16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AB16" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AC16" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -7523,25 +7523,25 @@
         <v>880</v>
       </c>
       <c r="W17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="X17" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Y17" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="Z17" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AA17" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="AB17" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AC17" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -7612,25 +7612,25 @@
         <v>893</v>
       </c>
       <c r="W18" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="X18" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="Y18" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Z18" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AA18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AB18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AC18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -7701,25 +7701,25 @@
         <v>906</v>
       </c>
       <c r="W19" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="X19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Y19" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="Z19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AA19" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AB19" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AC19" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -7790,25 +7790,25 @@
         <v>919</v>
       </c>
       <c r="W20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="X20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="Y20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="Z20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AA20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="AB20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="AC20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -7879,25 +7879,25 @@
         <v>932</v>
       </c>
       <c r="W21" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="X21" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="Y21" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="Z21" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AA21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="AB21" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AC21" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
@@ -7968,25 +7968,25 @@
         <v>945</v>
       </c>
       <c r="W22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="X22" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="Y22" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="Z22" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AA22" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AB22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AC22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -8057,25 +8057,25 @@
         <v>958</v>
       </c>
       <c r="W23" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="X23" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="Y23" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="Z23" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AA23" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AB23" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AC23" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -8146,25 +8146,25 @@
         <v>971</v>
       </c>
       <c r="W24" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="X24" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="Y24" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="Z24" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AA24" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AB24" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AC24" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -8235,25 +8235,25 @@
         <v>984</v>
       </c>
       <c r="W25" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="X25" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="Y25" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="Z25" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="AA25" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AB25" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AC25" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
@@ -8324,25 +8324,25 @@
         <v>997</v>
       </c>
       <c r="W26" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="X26" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="Y26" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="Z26" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AA26" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AB26" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AC26" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -8413,25 +8413,25 @@
         <v>1010</v>
       </c>
       <c r="W27" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="X27" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="Y27" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Z27" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AA27" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AB27" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AC27" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
@@ -8502,25 +8502,25 @@
         <v>1023</v>
       </c>
       <c r="W28" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="X28" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="Y28" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="Z28" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AA28" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AB28" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AC28" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
@@ -8591,25 +8591,25 @@
         <v>1036</v>
       </c>
       <c r="W29" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="X29" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y29" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Z29" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AA29" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AB29" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AC29" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
@@ -8680,25 +8680,25 @@
         <v>1049</v>
       </c>
       <c r="W30" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="X30" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="Y30" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="Z30" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AA30" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AB30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AC30" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -8769,25 +8769,25 @@
         <v>1062</v>
       </c>
       <c r="W31" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="X31" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Y31" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Z31" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AA31" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AB31" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AC31" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
@@ -8858,25 +8858,25 @@
         <v>1075</v>
       </c>
       <c r="W32" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="X32" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Y32" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="Z32" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AA32" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AB32" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="AC32" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
@@ -8947,25 +8947,25 @@
         <v>1088</v>
       </c>
       <c r="W33" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="X33" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Y33" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="Z33" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AA33" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AB33" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AC33" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
@@ -9036,25 +9036,25 @@
         <v>1101</v>
       </c>
       <c r="W34" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="X34" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="Y34" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Z34" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AA34" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AB34" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AC34" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -9125,25 +9125,25 @@
         <v>1114</v>
       </c>
       <c r="W35" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="X35" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="Y35" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Z35" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AA35" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AB35" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AC35" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -9214,25 +9214,25 @@
         <v>1127</v>
       </c>
       <c r="W36" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="X36" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="Y36" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="Z36" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AA36" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AB36" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AC36" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
@@ -9303,25 +9303,25 @@
         <v>1140</v>
       </c>
       <c r="W37" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="X37" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="Y37" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Z37" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AA37" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AB37" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="AC37" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
@@ -9392,25 +9392,25 @@
         <v>1153</v>
       </c>
       <c r="W38" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="X38" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="Y38" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="Z38" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AA38" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AB38" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AC38" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
@@ -9481,25 +9481,25 @@
         <v>1166</v>
       </c>
       <c r="W39" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="X39" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Y39" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="Z39" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="AA39" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AB39" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AC39" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
@@ -9570,25 +9570,25 @@
         <v>1179</v>
       </c>
       <c r="W40" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="X40" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="Y40" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="Z40" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="AA40" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AB40" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AC40" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
@@ -9659,25 +9659,25 @@
         <v>1192</v>
       </c>
       <c r="W41" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="X41" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="Y41" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="Z41" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AA41" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AB41" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AC41" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
@@ -9748,25 +9748,25 @@
         <v>1205</v>
       </c>
       <c r="W42" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="X42" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="Y42" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="Z42" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AA42" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB42" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AC42" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
@@ -9837,25 +9837,25 @@
         <v>1218</v>
       </c>
       <c r="W43" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="X43" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Y43" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="Z43" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AA43" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AB43" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AC43" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
@@ -9926,25 +9926,25 @@
         <v>1231</v>
       </c>
       <c r="W44" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="X44" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Y44" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="Z44" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AA44" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AB44" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC44" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
@@ -10015,25 +10015,25 @@
         <v>1244</v>
       </c>
       <c r="W45" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="X45" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="Y45" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="Z45" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AA45" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AB45" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AC45" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
@@ -10104,25 +10104,25 @@
         <v>1257</v>
       </c>
       <c r="W46" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="X46" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="Y46" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="Z46" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AA46" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AB46" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AC46" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
@@ -10193,25 +10193,25 @@
         <v>1270</v>
       </c>
       <c r="W47" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="X47" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="Y47" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="Z47" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AA47" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AB47" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AC47" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
@@ -10282,25 +10282,25 @@
         <v>1283</v>
       </c>
       <c r="W48" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="X48" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="Y48" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="Z48" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AA48" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AB48" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AC48" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
@@ -10371,25 +10371,25 @@
         <v>1296</v>
       </c>
       <c r="W49" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="X49" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="Y49" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Z49" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AA49" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AB49" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AC49" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
@@ -10460,25 +10460,25 @@
         <v>1309</v>
       </c>
       <c r="W50" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="X50" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="Y50" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="Z50" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AA50" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="AB50" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="AC50" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
@@ -10549,25 +10549,25 @@
         <v>1322</v>
       </c>
       <c r="W51" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="X51" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="Y51" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="Z51" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AA51" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AB51" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AC51" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
@@ -10638,25 +10638,25 @@
         <v>1335</v>
       </c>
       <c r="W52" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="X52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="Y52" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="Z52" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="AA52" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AB52" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AC52" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
@@ -10727,25 +10727,25 @@
         <v>1348</v>
       </c>
       <c r="W53" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="X53" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="Y53" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="Z53" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AA53" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AB53" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="AC53" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
@@ -10816,25 +10816,25 @@
         <v>1361</v>
       </c>
       <c r="W54" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="X54" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="Y54" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="Z54" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AA54" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="AB54" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="AC54" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
@@ -10905,25 +10905,25 @@
         <v>1374</v>
       </c>
       <c r="W55" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="X55" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="Y55" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="Z55" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AA55" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AB55" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AC55" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
@@ -10994,25 +10994,25 @@
         <v>1387</v>
       </c>
       <c r="W56" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="X56" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Y56" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="Z56" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AA56" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="AB56" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AC56" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
@@ -11083,25 +11083,25 @@
         <v>1400</v>
       </c>
       <c r="W57" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="X57" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="Y57" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="Z57" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="AA57" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="AB57" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="AC57" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
@@ -11172,25 +11172,25 @@
         <v>1413</v>
       </c>
       <c r="W58" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="X58" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="Y58" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="Z58" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AA58" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AB58" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AC58" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
@@ -11261,25 +11261,25 @@
         <v>1426</v>
       </c>
       <c r="W59" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="X59" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="Y59" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="Z59" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AA59" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="AB59" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AC59" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
@@ -11350,25 +11350,25 @@
         <v>1439</v>
       </c>
       <c r="W60" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="X60" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="Y60" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="Z60" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AA60" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AB60" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AC60" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
@@ -11439,25 +11439,25 @@
         <v>1452</v>
       </c>
       <c r="W61" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="X61" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="Y61" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="Z61" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AA61" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AB61" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AC61" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
@@ -11528,25 +11528,25 @@
         <v>1465</v>
       </c>
       <c r="W62" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="X62" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="Y62" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="Z62" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AA62" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AB62" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="AC62" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
@@ -11617,25 +11617,25 @@
         <v>1478</v>
       </c>
       <c r="W63" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="X63" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="Y63" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="Z63" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AA63" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="AB63" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="AC63" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
@@ -11706,25 +11706,25 @@
         <v>1491</v>
       </c>
       <c r="W64" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="X64" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="Y64" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="Z64" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AA64" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AB64" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="AC64" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
@@ -11795,25 +11795,25 @@
         <v>1504</v>
       </c>
       <c r="W65" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="X65" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="Y65" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="Z65" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="AA65" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AB65" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AC65" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
@@ -11884,25 +11884,25 @@
         <v>1517</v>
       </c>
       <c r="W66" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="X66" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="Y66" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="Z66" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AA66" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AB66" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AC66" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
@@ -11973,25 +11973,25 @@
         <v>1530</v>
       </c>
       <c r="W67" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="X67" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y67" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Z67" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="AA67" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="AB67" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="AC67" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
@@ -12062,25 +12062,25 @@
         <v>1543</v>
       </c>
       <c r="W68" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="X68" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="Y68" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="Z68" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AA68" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="AB68" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AC68" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
@@ -12151,25 +12151,25 @@
         <v>1556</v>
       </c>
       <c r="W69" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="X69" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="Y69" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="Z69" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AA69" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AB69" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="AC69" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.25">
@@ -12240,25 +12240,25 @@
         <v>1569</v>
       </c>
       <c r="W70" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="X70" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="Y70" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="Z70" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="AA70" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="AB70" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="AC70" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.25">
@@ -12329,25 +12329,25 @@
         <v>1582</v>
       </c>
       <c r="W71" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="X71" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="Y71" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="Z71" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="AA71" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AB71" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AC71" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.25">
@@ -12418,25 +12418,25 @@
         <v>1595</v>
       </c>
       <c r="W72" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="X72" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="Y72" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="Z72" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AA72" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="AB72" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AC72" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.25">
@@ -12507,25 +12507,25 @@
         <v>1608</v>
       </c>
       <c r="W73" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="X73" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="Y73" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="Z73" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AA73" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="AB73" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="AC73" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.25">
@@ -12596,25 +12596,25 @@
         <v>1621</v>
       </c>
       <c r="W74" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="X74" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="Y74" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="Z74" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="AA74" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="AB74" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AC74" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.25">
@@ -12685,25 +12685,25 @@
         <v>1634</v>
       </c>
       <c r="W75" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="X75" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="Y75" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="Z75" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AA75" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AB75" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="AC75" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.25">
@@ -12774,25 +12774,25 @@
         <v>1647</v>
       </c>
       <c r="W76" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="X76" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="Y76" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="Z76" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="AA76" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="AB76" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="AC76" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.25">
@@ -12863,25 +12863,25 @@
         <v>1660</v>
       </c>
       <c r="W77" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="X77" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="Y77" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="Z77" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AA77" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AB77" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AC77" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
@@ -12952,25 +12952,25 @@
         <v>1673</v>
       </c>
       <c r="W78" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="X78" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="Y78" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="Z78" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="AA78" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AB78" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="AC78" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.25">
@@ -13041,25 +13041,25 @@
         <v>1686</v>
       </c>
       <c r="W79" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="X79" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="Y79" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="Z79" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="AA79" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AB79" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="AC79" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.25">
@@ -13130,25 +13130,25 @@
         <v>1699</v>
       </c>
       <c r="W80" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="X80" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="Y80" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="Z80" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="AA80" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="AB80" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="AC80" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.25">
@@ -13219,25 +13219,25 @@
         <v>1712</v>
       </c>
       <c r="W81" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="X81" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="Y81" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="Z81" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AA81" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AB81" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AC81" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.25">
@@ -13308,25 +13308,25 @@
         <v>1725</v>
       </c>
       <c r="W82" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="X82" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="Y82" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="Z82" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="AA82" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="AB82" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="AC82" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
@@ -13397,25 +13397,25 @@
         <v>1738</v>
       </c>
       <c r="W83" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="X83" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="Y83" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="Z83" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="AA83" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="AB83" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="AC83" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
@@ -13486,25 +13486,25 @@
         <v>1751</v>
       </c>
       <c r="W84" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="X84" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="Y84" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="Z84" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="AA84" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="AB84" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="AC84" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
@@ -13575,25 +13575,25 @@
         <v>1764</v>
       </c>
       <c r="W85" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="X85" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="Y85" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="Z85" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="AA85" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="AB85" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="AC85" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.25">
@@ -13664,25 +13664,25 @@
         <v>1777</v>
       </c>
       <c r="W86" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="X86" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="Y86" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="Z86" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="AA86" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="AB86" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="AC86" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.25">
@@ -13753,25 +13753,25 @@
         <v>1790</v>
       </c>
       <c r="W87" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="X87" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="Y87" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Z87" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="AA87" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="AB87" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="AC87" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.25">
@@ -13842,25 +13842,25 @@
         <v>1803</v>
       </c>
       <c r="W88" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="X88" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Y88" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="Z88" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="AA88" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="AB88" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="AC88" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.25">
@@ -13931,25 +13931,25 @@
         <v>1816</v>
       </c>
       <c r="W89" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="X89" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="Y89" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="Z89" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AA89" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AB89" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="AC89" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.25">
@@ -14020,25 +14020,25 @@
         <v>1829</v>
       </c>
       <c r="W90" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="X90" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="Y90" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="Z90" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="AA90" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="AB90" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="AC90" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.25">
@@ -14109,25 +14109,25 @@
         <v>1842</v>
       </c>
       <c r="W91" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="X91" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="Y91" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="Z91" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="AA91" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="AB91" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="AC91" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
@@ -14198,25 +14198,25 @@
         <v>1855</v>
       </c>
       <c r="W92" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="X92" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="Y92" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="Z92" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="AA92" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="AB92" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="AC92" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.25">
@@ -14287,25 +14287,25 @@
         <v>1868</v>
       </c>
       <c r="W93" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="X93" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="Y93" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="Z93" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="AA93" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="AB93" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="AC93" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.25">
@@ -14376,29 +14376,136 @@
         <v>1881</v>
       </c>
       <c r="W94" t="s">
+        <v>659</v>
+      </c>
+      <c r="X94" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>661</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>662</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>663</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>664</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="W95" t="s">
         <v>666</v>
       </c>
-      <c r="X94" t="s">
+      <c r="X95" t="s">
         <v>667</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>668</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Z95" t="s">
         <v>669</v>
       </c>
-      <c r="AA94" t="s">
+      <c r="AA95" t="s">
         <v>670</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AB95" t="s">
         <v>671</v>
       </c>
-      <c r="AC94" t="s">
+      <c r="AC95" t="s">
         <v>672</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B94">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C94">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D94">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E94">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F94">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G94">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H94">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -14410,7 +14517,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C94">
+  <conditionalFormatting sqref="X2">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -14422,7 +14529,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D94">
+  <conditionalFormatting sqref="Y2">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -14434,7 +14541,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E94">
+  <conditionalFormatting sqref="Z2">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -14446,7 +14553,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F94">
+  <conditionalFormatting sqref="AA2">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -14458,7 +14565,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G94">
+  <conditionalFormatting sqref="AB2">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -14470,7 +14577,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H94">
+  <conditionalFormatting sqref="AC2">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -14482,7 +14589,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W94">
+  <conditionalFormatting sqref="W3:W95">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -14494,7 +14601,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X94">
+  <conditionalFormatting sqref="X3:X95">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -14506,7 +14613,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y94">
+  <conditionalFormatting sqref="Y3:Y95">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -14518,7 +14625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z94">
+  <conditionalFormatting sqref="Z3:Z95">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -14530,7 +14637,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA94">
+  <conditionalFormatting sqref="AA3:AA95">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -14542,7 +14649,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB94">
+  <conditionalFormatting sqref="AB3:AB95">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -14554,7 +14661,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC3:AC94">
+  <conditionalFormatting sqref="AC3:AC95">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
